--- a/excel/ingredient2018119.xlsx
+++ b/excel/ingredient2018119.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="44">
   <si>
     <t>供餐日期</t>
   </si>
@@ -86,7 +86,7 @@
     <t>新加南食品行</t>
   </si>
   <si>
-    <t>25.8斤</t>
+    <t>15.0</t>
   </si>
   <si>
     <t>Y</t>
@@ -101,7 +101,7 @@
     <t>柳葉魚</t>
   </si>
   <si>
-    <t>100隻</t>
+    <t>7.199999999999999</t>
   </si>
   <si>
     <t>螞蟻上樹</t>
@@ -110,13 +110,13 @@
     <t>粉絲</t>
   </si>
   <si>
-    <t>1大包</t>
+    <t>0.6</t>
   </si>
   <si>
     <t>紅蘿蔔</t>
   </si>
   <si>
-    <t>2斤</t>
+    <t>1.2</t>
   </si>
   <si>
     <t>絞肉</t>
@@ -131,7 +131,7 @@
     <t>A菜</t>
   </si>
   <si>
-    <t>8斤</t>
+    <t>4.8</t>
   </si>
   <si>
     <t>酸菜豬肉湯</t>
@@ -140,13 +140,10 @@
     <t>酸菜</t>
   </si>
   <si>
-    <t>1斤</t>
-  </si>
-  <si>
     <t>豬血</t>
   </si>
   <si>
-    <t>4斤</t>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -598,7 +595,7 @@
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="O9" t="s">
         <v>25</v>
@@ -619,7 +616,7 @@
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -643,7 +640,7 @@
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
         <v>25</v>
